--- a/Sandbox/src/SignUp_data.xlsx
+++ b/Sandbox/src/SignUp_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20595" windowHeight="12240"/>
+    <workbookView windowWidth="19200" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Username</t>
   </si>
@@ -23,15 +23,6 @@
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>obainbridge34</t>
-  </si>
-  <si>
-    <t>jtuvey16@homestead.com</t>
-  </si>
-  <si>
-    <t>ZFAQ5JzkCCz</t>
   </si>
   <si>
     <t>nlowne16</t>
@@ -300,9 +291,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -319,6 +310,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -334,16 +371,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,106 +394,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,12 +462,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -484,174 +643,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,16 +666,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,6 +700,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,173 +753,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1230,10 +1221,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView showOutlineSymbols="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1573,49 +1564,37 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" t="s">
-        <v>92</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="llassen15@hatena.ne.jp"/>
-    <hyperlink ref="B6" r:id="rId2" display="nguiot10@msn.com"/>
-    <hyperlink ref="B7" r:id="rId3" display="pelves10@creativecommons.org"/>
-    <hyperlink ref="B8" r:id="rId4" display="rtrigg11@themeforest.net"/>
-    <hyperlink ref="B4" r:id="rId5" display="gcordeau14@skype.com"/>
-    <hyperlink ref="B2" r:id="rId6" display="jtuvey16@homestead.com"/>
-    <hyperlink ref="B3" r:id="rId7" display="mvahl13@linkedin.com"/>
-    <hyperlink ref="B14" r:id="rId8" display="rwapplingtonc5@booking.com"/>
-    <hyperlink ref="B12" r:id="rId9" display="rivanisova4@squidoo.com"/>
-    <hyperlink ref="B11" r:id="rId10" display="hpyzer94@wufoo.com"/>
-    <hyperlink ref="B10" r:id="rId11" display="vocahey84@geocities.com"/>
-    <hyperlink ref="B18" r:id="rId12" display="acossansg4@whitehouse.gov"/>
-    <hyperlink ref="B17" r:id="rId13" display="laggisf4@bluehost.com"/>
-    <hyperlink ref="B16" r:id="rId14" display="ljasiake4@who.int"/>
-    <hyperlink ref="B15" r:id="rId15" display="dodalyd4@yellowpages.com"/>
-    <hyperlink ref="B13" r:id="rId16" display="bcossemb6@smugmug.com"/>
-    <hyperlink ref="B24" r:id="rId17" display="lklaesm1@flavors.me"/>
-    <hyperlink ref="B23" r:id="rId18" display="lmacgaughyl2@prlog.org"/>
-    <hyperlink ref="B22" r:id="rId19" display="lrevansk2@4shared.com"/>
-    <hyperlink ref="B21" r:id="rId20" display="lcollishawj2@google.pl"/>
-    <hyperlink ref="B20" r:id="rId21" display="rwharini2@yahoo.com"/>
-    <hyperlink ref="B19" r:id="rId22" display="ipumphreyh2@sogou.com"/>
-    <hyperlink ref="B9" r:id="rId23" display="emacgoun74@addthis.com"/>
-    <hyperlink ref="B25" r:id="rId24" display="tweymontn1@flickr.com"/>
-    <hyperlink ref="B26" r:id="rId25" display="shamelo1@smh.com.au"/>
-    <hyperlink ref="B27" r:id="rId26" display="sblacklerp1@dmoz.org"/>
-    <hyperlink ref="B28" r:id="rId27" display="rcraneq1@is.gd"/>
-    <hyperlink ref="B29" r:id="rId28" display="kbracchir1@blog.com"/>
-    <hyperlink ref="B30" r:id="rId29" display="wcuberleys1@cbsnews.com"/>
-    <hyperlink ref="B31" r:id="rId30" display="cfreckeltont1@youku.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="llassen15@hatena.ne.jp"/>
+    <hyperlink ref="B5" r:id="rId2" display="nguiot10@msn.com"/>
+    <hyperlink ref="B6" r:id="rId3" display="pelves10@creativecommons.org"/>
+    <hyperlink ref="B7" r:id="rId4" display="rtrigg11@themeforest.net"/>
+    <hyperlink ref="B3" r:id="rId5" display="gcordeau14@skype.com"/>
+    <hyperlink ref="B2" r:id="rId6" display="mvahl13@linkedin.com"/>
+    <hyperlink ref="B13" r:id="rId7" display="rwapplingtonc5@booking.com"/>
+    <hyperlink ref="B11" r:id="rId8" display="rivanisova4@squidoo.com"/>
+    <hyperlink ref="B10" r:id="rId9" display="hpyzer94@wufoo.com"/>
+    <hyperlink ref="B9" r:id="rId10" display="vocahey84@geocities.com"/>
+    <hyperlink ref="B17" r:id="rId11" display="acossansg4@whitehouse.gov"/>
+    <hyperlink ref="B16" r:id="rId12" display="laggisf4@bluehost.com"/>
+    <hyperlink ref="B15" r:id="rId13" display="ljasiake4@who.int"/>
+    <hyperlink ref="B14" r:id="rId14" display="dodalyd4@yellowpages.com"/>
+    <hyperlink ref="B12" r:id="rId15" display="bcossemb6@smugmug.com"/>
+    <hyperlink ref="B23" r:id="rId16" display="lklaesm1@flavors.me"/>
+    <hyperlink ref="B22" r:id="rId17" display="lmacgaughyl2@prlog.org"/>
+    <hyperlink ref="B21" r:id="rId18" display="lrevansk2@4shared.com"/>
+    <hyperlink ref="B20" r:id="rId19" display="lcollishawj2@google.pl"/>
+    <hyperlink ref="B19" r:id="rId20" display="rwharini2@yahoo.com"/>
+    <hyperlink ref="B18" r:id="rId21" display="ipumphreyh2@sogou.com"/>
+    <hyperlink ref="B8" r:id="rId22" display="emacgoun74@addthis.com"/>
+    <hyperlink ref="B24" r:id="rId23" display="tweymontn1@flickr.com"/>
+    <hyperlink ref="B25" r:id="rId24" display="shamelo1@smh.com.au"/>
+    <hyperlink ref="B26" r:id="rId25" display="sblacklerp1@dmoz.org"/>
+    <hyperlink ref="B27" r:id="rId26" display="rcraneq1@is.gd"/>
+    <hyperlink ref="B28" r:id="rId27" display="kbracchir1@blog.com"/>
+    <hyperlink ref="B29" r:id="rId28" display="wcuberleys1@cbsnews.com"/>
+    <hyperlink ref="B30" r:id="rId29" display="cfreckeltont1@youku.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait"/>
